--- a/Code/Results/Cases/Case_4_152/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_152/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.02500446814798</v>
+        <v>1.049133904040056</v>
       </c>
       <c r="D2">
-        <v>1.044568317679452</v>
+        <v>1.057344047581932</v>
       </c>
       <c r="E2">
-        <v>1.033020785770427</v>
+        <v>1.052807067124932</v>
       </c>
       <c r="F2">
-        <v>1.048961027786935</v>
+        <v>1.066030348053597</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.060898152688944</v>
+        <v>1.050574343273791</v>
       </c>
       <c r="J2">
-        <v>1.046462181180411</v>
+        <v>1.054173963831215</v>
       </c>
       <c r="K2">
-        <v>1.055439793827354</v>
+        <v>1.060079274988282</v>
       </c>
       <c r="L2">
-        <v>1.04403848601397</v>
+        <v>1.055554779218594</v>
       </c>
       <c r="M2">
-        <v>1.059777932399673</v>
+        <v>1.068741993696972</v>
       </c>
       <c r="N2">
-        <v>1.047948277508577</v>
+        <v>1.055671011775299</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.029763626321224</v>
+        <v>1.050128437672494</v>
       </c>
       <c r="D3">
-        <v>1.048375876520959</v>
+        <v>1.05815795285234</v>
       </c>
       <c r="E3">
-        <v>1.03730094867445</v>
+        <v>1.053751092747251</v>
       </c>
       <c r="F3">
-        <v>1.053273488350494</v>
+        <v>1.066975360151392</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.062780674885476</v>
+        <v>1.05090203186054</v>
       </c>
       <c r="J3">
-        <v>1.049474527645869</v>
+        <v>1.054817434384725</v>
       </c>
       <c r="K3">
-        <v>1.058425048387246</v>
+        <v>1.060706997738683</v>
       </c>
       <c r="L3">
-        <v>1.04747780593964</v>
+        <v>1.056311387722772</v>
       </c>
       <c r="M3">
-        <v>1.06326724951452</v>
+        <v>1.069502195958205</v>
       </c>
       <c r="N3">
-        <v>1.050964901851536</v>
+        <v>1.056315396130802</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.032779103456043</v>
+        <v>1.050772315414106</v>
       </c>
       <c r="D4">
-        <v>1.050790828666799</v>
+        <v>1.058684881767409</v>
       </c>
       <c r="E4">
-        <v>1.040017916166103</v>
+        <v>1.054362614179068</v>
       </c>
       <c r="F4">
-        <v>1.056010522412187</v>
+        <v>1.067587448745815</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.063963691211044</v>
+        <v>1.051112974876442</v>
       </c>
       <c r="J4">
-        <v>1.051379924040449</v>
+        <v>1.055233530099396</v>
       </c>
       <c r="K4">
-        <v>1.060312590894375</v>
+        <v>1.061112800653137</v>
       </c>
       <c r="L4">
-        <v>1.049656208433145</v>
+        <v>1.056801011761477</v>
       </c>
       <c r="M4">
-        <v>1.065476869527659</v>
+        <v>1.069994071778729</v>
       </c>
       <c r="N4">
-        <v>1.052873004127549</v>
+        <v>1.056732082749115</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.034032047311762</v>
+        <v>1.051043084364872</v>
       </c>
       <c r="D5">
-        <v>1.051794786962758</v>
+        <v>1.058906468186454</v>
       </c>
       <c r="E5">
-        <v>1.041147990636097</v>
+        <v>1.054619858150673</v>
       </c>
       <c r="F5">
-        <v>1.057148832365928</v>
+        <v>1.067844914039787</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.06445285707092</v>
+        <v>1.0512013931289</v>
       </c>
       <c r="J5">
-        <v>1.05217080653146</v>
+        <v>1.055408390773451</v>
       </c>
       <c r="K5">
-        <v>1.061095883932408</v>
+        <v>1.061283309536466</v>
       </c>
       <c r="L5">
-        <v>1.050561117050262</v>
+        <v>1.057006860368716</v>
       </c>
       <c r="M5">
-        <v>1.066394632116736</v>
+        <v>1.070200849338638</v>
       </c>
       <c r="N5">
-        <v>1.053665009762413</v>
+        <v>1.056907191745384</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.034241572233793</v>
+        <v>1.051088552499424</v>
       </c>
       <c r="D6">
-        <v>1.051962705147967</v>
+        <v>1.058943677333391</v>
       </c>
       <c r="E6">
-        <v>1.041337035964318</v>
+        <v>1.054663059922136</v>
       </c>
       <c r="F6">
-        <v>1.057339248676518</v>
+        <v>1.067888151966453</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.064534517275244</v>
+        <v>1.051216223555175</v>
       </c>
       <c r="J6">
-        <v>1.052303013715328</v>
+        <v>1.055437746762595</v>
       </c>
       <c r="K6">
-        <v>1.06122681173331</v>
+        <v>1.061311933390813</v>
       </c>
       <c r="L6">
-        <v>1.050712427076018</v>
+        <v>1.057041423858555</v>
       </c>
       <c r="M6">
-        <v>1.066548084602323</v>
+        <v>1.070235567763899</v>
       </c>
       <c r="N6">
-        <v>1.053797404695646</v>
+        <v>1.0569365894234</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.032795902636165</v>
+        <v>1.050775933117619</v>
       </c>
       <c r="D7">
-        <v>1.050804287451829</v>
+        <v>1.05868784235985</v>
       </c>
       <c r="E7">
-        <v>1.040033063393139</v>
+        <v>1.054366050856654</v>
       </c>
       <c r="F7">
-        <v>1.056025780471505</v>
+        <v>1.067590888448062</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.06397025929294</v>
+        <v>1.051114157356219</v>
       </c>
       <c r="J7">
-        <v>1.051390531282967</v>
+        <v>1.055235866856303</v>
       </c>
       <c r="K7">
-        <v>1.060323097062937</v>
+        <v>1.061115079358322</v>
       </c>
       <c r="L7">
-        <v>1.049668342178877</v>
+        <v>1.056803762279706</v>
       </c>
       <c r="M7">
-        <v>1.065489176087017</v>
+        <v>1.069996834779296</v>
       </c>
       <c r="N7">
-        <v>1.052883626433569</v>
+        <v>1.056734422824485</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.026626451295935</v>
+        <v>1.049469938949012</v>
       </c>
       <c r="D8">
-        <v>1.045865446248497</v>
+        <v>1.0576190525621</v>
       </c>
       <c r="E8">
-        <v>1.034478453021664</v>
+        <v>1.053125964943895</v>
       </c>
       <c r="F8">
-        <v>1.050429781666697</v>
+        <v>1.066349593942094</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.061541769650986</v>
+        <v>1.050685313306966</v>
       </c>
       <c r="J8">
-        <v>1.047489494539544</v>
+        <v>1.054391483794214</v>
       </c>
       <c r="K8">
-        <v>1.056458014498611</v>
+        <v>1.060291494182326</v>
       </c>
       <c r="L8">
-        <v>1.045210798618353</v>
+        <v>1.055810468256769</v>
       </c>
       <c r="M8">
-        <v>1.060967377559133</v>
+        <v>1.068998912462439</v>
       </c>
       <c r="N8">
-        <v>1.048977049770514</v>
+        <v>1.055888840641595</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.015237946788407</v>
+        <v>1.047171300013344</v>
       </c>
       <c r="D9">
-        <v>1.036770149382238</v>
+        <v>1.055737879813348</v>
       </c>
       <c r="E9">
-        <v>1.024266363091664</v>
+        <v>1.050945976066537</v>
       </c>
       <c r="F9">
-        <v>1.040138454203825</v>
+        <v>1.0641669338909</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.056982696681739</v>
+        <v>1.04992127987494</v>
       </c>
       <c r="J9">
-        <v>1.040263855455542</v>
+        <v>1.052901513198555</v>
       </c>
       <c r="K9">
-        <v>1.049293552473289</v>
+        <v>1.058837386472172</v>
       </c>
       <c r="L9">
-        <v>1.036977632565216</v>
+        <v>1.054060556778149</v>
       </c>
       <c r="M9">
-        <v>1.052612229807023</v>
+        <v>1.067240284671155</v>
       </c>
       <c r="N9">
-        <v>1.04174114945022</v>
+        <v>1.054396754116788</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.007257794462117</v>
+        <v>1.045640713572921</v>
       </c>
       <c r="D10">
-        <v>1.030414864232663</v>
+        <v>1.054485282662931</v>
       </c>
       <c r="E10">
-        <v>1.017141193003829</v>
+        <v>1.0494962007988</v>
       </c>
       <c r="F10">
-        <v>1.032956332894304</v>
+        <v>1.062715018492525</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.053738899557804</v>
+        <v>1.049406331099489</v>
       </c>
       <c r="J10">
-        <v>1.035186385502852</v>
+        <v>1.051906852876932</v>
       </c>
       <c r="K10">
-        <v>1.044255857117774</v>
+        <v>1.057866110054144</v>
       </c>
       <c r="L10">
-        <v>1.031207704515728</v>
+        <v>1.052894262066795</v>
       </c>
       <c r="M10">
-        <v>1.046754997702776</v>
+        <v>1.066067806419356</v>
       </c>
       <c r="N10">
-        <v>1.036656468907804</v>
+        <v>1.05340068126342</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.003700545503338</v>
+        <v>1.044978394978952</v>
       </c>
       <c r="D11">
-        <v>1.027586985132817</v>
+        <v>1.05394326617578</v>
       </c>
       <c r="E11">
-        <v>1.013972950908101</v>
+        <v>1.048869285158477</v>
       </c>
       <c r="F11">
-        <v>1.029762483638123</v>
+        <v>1.062087091924426</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.052281846676916</v>
+        <v>1.049182030877898</v>
       </c>
       <c r="J11">
-        <v>1.032920183679689</v>
+        <v>1.051475842258801</v>
       </c>
       <c r="K11">
-        <v>1.04200675188454</v>
+        <v>1.057445101238188</v>
       </c>
       <c r="L11">
-        <v>1.028636082536411</v>
+        <v>1.05238932673279</v>
       </c>
       <c r="M11">
-        <v>1.044144133438467</v>
+        <v>1.065560106066435</v>
       </c>
       <c r="N11">
-        <v>1.034387048818115</v>
+        <v>1.052969058560773</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>1.002363028187142</v>
+        <v>1.04473244617875</v>
       </c>
       <c r="D12">
-        <v>1.026524542662569</v>
+        <v>1.053741993065954</v>
       </c>
       <c r="E12">
-        <v>1.012782940420222</v>
+        <v>1.04863654879489</v>
       </c>
       <c r="F12">
-        <v>1.028562822554471</v>
+        <v>1.061853967483408</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.051732383093609</v>
+        <v>1.04909851721868</v>
       </c>
       <c r="J12">
-        <v>1.032067716022001</v>
+        <v>1.051315698792578</v>
       </c>
       <c r="K12">
-        <v>1.041160626404629</v>
+        <v>1.057288654382344</v>
       </c>
       <c r="L12">
-        <v>1.027669269867236</v>
+        <v>1.0522017836462</v>
       </c>
       <c r="M12">
-        <v>1.043162526711075</v>
+        <v>1.065371522855955</v>
       </c>
       <c r="N12">
-        <v>1.033533370558574</v>
+        <v>1.05280868767246</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>1.002650678382032</v>
+        <v>1.044785200046588</v>
       </c>
       <c r="D13">
-        <v>1.026752995635785</v>
+        <v>1.053785164284957</v>
       </c>
       <c r="E13">
-        <v>1.013038810378953</v>
+        <v>1.048686465728555</v>
       </c>
       <c r="F13">
-        <v>1.028820768827534</v>
+        <v>1.061903968228682</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.051850624376062</v>
+        <v>1.049116440162188</v>
       </c>
       <c r="J13">
-        <v>1.032251066498906</v>
+        <v>1.051350052224391</v>
       </c>
       <c r="K13">
-        <v>1.041342616653988</v>
+        <v>1.057322215715039</v>
       </c>
       <c r="L13">
-        <v>1.027877189397546</v>
+        <v>1.05224201170405</v>
       </c>
       <c r="M13">
-        <v>1.043373629492451</v>
+        <v>1.065411974614296</v>
       </c>
       <c r="N13">
-        <v>1.033716981414187</v>
+        <v>1.052843089890087</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.003590321777408</v>
+        <v>1.044958063429478</v>
       </c>
       <c r="D14">
-        <v>1.027499412734062</v>
+        <v>1.053926627731183</v>
       </c>
       <c r="E14">
-        <v>1.013874857543654</v>
+        <v>1.048850044481745</v>
       </c>
       <c r="F14">
-        <v>1.029663595365933</v>
+        <v>1.062067819425122</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.052236598342994</v>
+        <v>1.049175131661525</v>
       </c>
       <c r="J14">
-        <v>1.032849939961908</v>
+        <v>1.051462605704051</v>
       </c>
       <c r="K14">
-        <v>1.041937032516255</v>
+        <v>1.057432170623526</v>
       </c>
       <c r="L14">
-        <v>1.028556405711649</v>
+        <v>1.052373824106374</v>
       </c>
       <c r="M14">
-        <v>1.044063238182023</v>
+        <v>1.065544517729308</v>
       </c>
       <c r="N14">
-        <v>1.034316705346198</v>
+        <v>1.052955803208597</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.004167092693633</v>
+        <v>1.045064578998011</v>
       </c>
       <c r="D15">
-        <v>1.027957689794937</v>
+        <v>1.054013795469949</v>
       </c>
       <c r="E15">
-        <v>1.014388204484191</v>
+        <v>1.048950847738769</v>
       </c>
       <c r="F15">
-        <v>1.03018110099785</v>
+        <v>1.062168788879712</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.052473305116231</v>
+        <v>1.049211267129309</v>
       </c>
       <c r="J15">
-        <v>1.033217491084915</v>
+        <v>1.051531947415585</v>
       </c>
       <c r="K15">
-        <v>1.042301836406715</v>
+        <v>1.057499908819467</v>
       </c>
       <c r="L15">
-        <v>1.028973337813481</v>
+        <v>1.05245503973802</v>
       </c>
       <c r="M15">
-        <v>1.044486544475652</v>
+        <v>1.065626181847098</v>
       </c>
       <c r="N15">
-        <v>1.034684778433959</v>
+        <v>1.053025243393316</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.007491657126708</v>
+        <v>1.04568467868451</v>
       </c>
       <c r="D16">
-        <v>1.030600887769294</v>
+        <v>1.054521262308007</v>
       </c>
       <c r="E16">
-        <v>1.017349650289313</v>
+        <v>1.049537825032683</v>
       </c>
       <c r="F16">
-        <v>1.033166469961961</v>
+        <v>1.062756708050569</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.053834463238374</v>
+        <v>1.049421189300763</v>
       </c>
       <c r="J16">
-        <v>1.035335315919387</v>
+        <v>1.051935451019621</v>
       </c>
       <c r="K16">
-        <v>1.044403651123283</v>
+        <v>1.057894041811773</v>
       </c>
       <c r="L16">
-        <v>1.031376782057855</v>
+        <v>1.052927774661375</v>
       </c>
       <c r="M16">
-        <v>1.046926649173282</v>
+        <v>1.066101500681817</v>
       </c>
       <c r="N16">
-        <v>1.036805610822613</v>
+        <v>1.053429320018752</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.009549199092955</v>
+        <v>1.046073767691398</v>
       </c>
       <c r="D17">
-        <v>1.032238122064489</v>
+        <v>1.0548396815698</v>
       </c>
       <c r="E17">
-        <v>1.019184577626123</v>
+        <v>1.049906247625958</v>
       </c>
       <c r="F17">
-        <v>1.03501615231236</v>
+        <v>1.063125698963575</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.054673984158353</v>
+        <v>1.04955251370327</v>
       </c>
       <c r="J17">
-        <v>1.036645297793701</v>
+        <v>1.052188473928955</v>
       </c>
       <c r="K17">
-        <v>1.045703563757413</v>
+        <v>1.0581411537417</v>
       </c>
       <c r="L17">
-        <v>1.032864390226619</v>
+        <v>1.05322433013291</v>
       </c>
       <c r="M17">
-        <v>1.048436867077222</v>
+        <v>1.06639965359733</v>
       </c>
       <c r="N17">
-        <v>1.038117453021445</v>
+        <v>1.053682702249639</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.010739571715082</v>
+        <v>1.046300758712568</v>
       </c>
       <c r="D18">
-        <v>1.033185804816894</v>
+        <v>1.055025445424029</v>
       </c>
       <c r="E18">
-        <v>1.020246902683354</v>
+        <v>1.050121223922351</v>
       </c>
       <c r="F18">
-        <v>1.036086992104928</v>
+        <v>1.063340998618127</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.055158626304963</v>
+        <v>1.049628985234852</v>
       </c>
       <c r="J18">
-        <v>1.037402901806408</v>
+        <v>1.052336027370757</v>
       </c>
       <c r="K18">
-        <v>1.046455281616223</v>
+        <v>1.058285247481134</v>
       </c>
       <c r="L18">
-        <v>1.033725066399968</v>
+        <v>1.05339731340066</v>
       </c>
       <c r="M18">
-        <v>1.049310592374118</v>
+        <v>1.066573560179211</v>
       </c>
       <c r="N18">
-        <v>1.038876132918749</v>
+        <v>1.053830465234253</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.011143829454741</v>
+        <v>1.046378163894446</v>
       </c>
       <c r="D19">
-        <v>1.033507722156977</v>
+        <v>1.055088792055279</v>
       </c>
       <c r="E19">
-        <v>1.020607799307224</v>
+        <v>1.050194539104928</v>
       </c>
       <c r="F19">
-        <v>1.036450776402654</v>
+        <v>1.063414422675464</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.055323033228456</v>
+        <v>1.049655038368315</v>
       </c>
       <c r="J19">
-        <v>1.037660140769175</v>
+        <v>1.05238633408399</v>
       </c>
       <c r="K19">
-        <v>1.046710511049853</v>
+        <v>1.058334372500147</v>
       </c>
       <c r="L19">
-        <v>1.034017361437401</v>
+        <v>1.053456297472989</v>
       </c>
       <c r="M19">
-        <v>1.049607313339311</v>
+        <v>1.066632857642633</v>
       </c>
       <c r="N19">
-        <v>1.039133737190349</v>
+        <v>1.053880843388789</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.009329459821781</v>
+        <v>1.046032017777487</v>
       </c>
       <c r="D20">
-        <v>1.032063220553841</v>
+        <v>1.0548055145401</v>
       </c>
       <c r="E20">
-        <v>1.018988535323712</v>
+        <v>1.049866710918942</v>
       </c>
       <c r="F20">
-        <v>1.034818536390672</v>
+        <v>1.063086102121889</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.05458443499221</v>
+        <v>1.049538437051101</v>
       </c>
       <c r="J20">
-        <v>1.03650542381527</v>
+        <v>1.05216133012019</v>
       </c>
       <c r="K20">
-        <v>1.045564771377207</v>
+        <v>1.058114645358412</v>
       </c>
       <c r="L20">
-        <v>1.032705514307252</v>
+        <v>1.053192511759004</v>
       </c>
       <c r="M20">
-        <v>1.048275579710608</v>
+        <v>1.066367664706078</v>
       </c>
       <c r="N20">
-        <v>1.037977380405922</v>
+        <v>1.053655519893551</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.003314074923622</v>
+        <v>1.044907157651689</v>
       </c>
       <c r="D21">
-        <v>1.027279949167778</v>
+        <v>1.053884968720454</v>
       </c>
       <c r="E21">
-        <v>1.013629032446172</v>
+        <v>1.048801871075453</v>
       </c>
       <c r="F21">
-        <v>1.029415777718339</v>
+        <v>1.062019566137529</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.052123169429257</v>
+        <v>1.049157853956521</v>
       </c>
       <c r="J21">
-        <v>1.032673886542161</v>
+        <v>1.051429462800623</v>
       </c>
       <c r="K21">
-        <v>1.041762291885922</v>
+        <v>1.057399793444848</v>
       </c>
       <c r="L21">
-        <v>1.028356718625868</v>
+        <v>1.052335008292168</v>
       </c>
       <c r="M21">
-        <v>1.043860496822456</v>
+        <v>1.065505487098708</v>
       </c>
       <c r="N21">
-        <v>1.034140401910401</v>
+        <v>1.052922613238445</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9994377566209035</v>
+        <v>1.044200294432551</v>
       </c>
       <c r="D22">
-        <v>1.024202501101165</v>
+        <v>1.053306509168306</v>
       </c>
       <c r="E22">
-        <v>1.010182627140582</v>
+        <v>1.048133105088649</v>
       </c>
       <c r="F22">
-        <v>1.025941373891746</v>
+        <v>1.061349661011519</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.05052774482033</v>
+        <v>1.048917417569021</v>
       </c>
       <c r="J22">
-        <v>1.030202646831462</v>
+        <v>1.050969037516672</v>
       </c>
       <c r="K22">
-        <v>1.039309280229073</v>
+        <v>1.056949959392661</v>
       </c>
       <c r="L22">
-        <v>1.025555027574873</v>
+        <v>1.051795933778517</v>
       </c>
       <c r="M22">
-        <v>1.041015868048042</v>
+        <v>1.064963398168868</v>
       </c>
       <c r="N22">
-        <v>1.031665652755858</v>
+        <v>1.052461534097779</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>1.001501915880496</v>
+        <v>1.044574979752355</v>
       </c>
       <c r="D23">
-        <v>1.025840771642751</v>
+        <v>1.053613130493539</v>
       </c>
       <c r="E23">
-        <v>1.012017152100272</v>
+        <v>1.04848756006955</v>
       </c>
       <c r="F23">
-        <v>1.027790816148569</v>
+        <v>1.061704726736322</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.051378182291202</v>
+        <v>1.0490449862133</v>
       </c>
       <c r="J23">
-        <v>1.031518784345766</v>
+        <v>1.05121314319387</v>
       </c>
       <c r="K23">
-        <v>1.040615754826146</v>
+        <v>1.057188460581846</v>
       </c>
       <c r="L23">
-        <v>1.027046860488034</v>
+        <v>1.052081700335308</v>
       </c>
       <c r="M23">
-        <v>1.042530582989724</v>
+        <v>1.065250769865971</v>
       </c>
       <c r="N23">
-        <v>1.032983659336395</v>
+        <v>1.052705986433038</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.00942878062512</v>
+        <v>1.046050882636699</v>
       </c>
       <c r="D24">
-        <v>1.032142273495598</v>
+        <v>1.054820953041144</v>
       </c>
       <c r="E24">
-        <v>1.019077142939116</v>
+        <v>1.049884575602811</v>
       </c>
       <c r="F24">
-        <v>1.034907855340274</v>
+        <v>1.063103994003169</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.054624913942298</v>
+        <v>1.04954479807908</v>
       </c>
       <c r="J24">
-        <v>1.036568646850362</v>
+        <v>1.05217359533335</v>
       </c>
       <c r="K24">
-        <v>1.045627505725393</v>
+        <v>1.058126623487017</v>
       </c>
       <c r="L24">
-        <v>1.0327773251482</v>
+        <v>1.053206889089474</v>
       </c>
       <c r="M24">
-        <v>1.048348480609463</v>
+        <v>1.06638211911211</v>
       </c>
       <c r="N24">
-        <v>1.038040693224975</v>
+        <v>1.053667802524721</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.01824739482802</v>
+        <v>1.047765231347293</v>
       </c>
       <c r="D25">
-        <v>1.039170767002011</v>
+        <v>1.056223944754047</v>
       </c>
       <c r="E25">
-        <v>1.026959855895173</v>
+        <v>1.0515089335679</v>
       </c>
       <c r="F25">
-        <v>1.04285316856579</v>
+        <v>1.064730645635977</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.058196092382231</v>
+        <v>1.050119788470614</v>
       </c>
       <c r="J25">
-        <v>1.042175888701982</v>
+        <v>1.053286946467964</v>
       </c>
       <c r="K25">
-        <v>1.0511899836729</v>
+        <v>1.059213641063502</v>
       </c>
       <c r="L25">
-        <v>1.039153589239837</v>
+        <v>1.054512898936861</v>
       </c>
       <c r="M25">
-        <v>1.054820769377899</v>
+        <v>1.067694946204032</v>
       </c>
       <c r="N25">
-        <v>1.043655898003184</v>
+        <v>1.05478273474565</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_152/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_152/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.049133904040056</v>
+        <v>1.025004468147981</v>
       </c>
       <c r="D2">
-        <v>1.057344047581932</v>
+        <v>1.044568317679453</v>
       </c>
       <c r="E2">
-        <v>1.052807067124932</v>
+        <v>1.033020785770428</v>
       </c>
       <c r="F2">
-        <v>1.066030348053597</v>
+        <v>1.048961027786937</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.050574343273791</v>
+        <v>1.060898152688944</v>
       </c>
       <c r="J2">
-        <v>1.054173963831215</v>
+        <v>1.046462181180411</v>
       </c>
       <c r="K2">
-        <v>1.060079274988282</v>
+        <v>1.055439793827355</v>
       </c>
       <c r="L2">
-        <v>1.055554779218594</v>
+        <v>1.04403848601397</v>
       </c>
       <c r="M2">
-        <v>1.068741993696972</v>
+        <v>1.059777932399674</v>
       </c>
       <c r="N2">
-        <v>1.055671011775299</v>
+        <v>1.047948277508577</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.050128437672494</v>
+        <v>1.029763626321224</v>
       </c>
       <c r="D3">
-        <v>1.05815795285234</v>
+        <v>1.048375876520959</v>
       </c>
       <c r="E3">
-        <v>1.053751092747251</v>
+        <v>1.03730094867445</v>
       </c>
       <c r="F3">
-        <v>1.066975360151392</v>
+        <v>1.053273488350494</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.05090203186054</v>
+        <v>1.062780674885476</v>
       </c>
       <c r="J3">
-        <v>1.054817434384725</v>
+        <v>1.049474527645869</v>
       </c>
       <c r="K3">
-        <v>1.060706997738683</v>
+        <v>1.058425048387246</v>
       </c>
       <c r="L3">
-        <v>1.056311387722772</v>
+        <v>1.04747780593964</v>
       </c>
       <c r="M3">
-        <v>1.069502195958205</v>
+        <v>1.063267249514521</v>
       </c>
       <c r="N3">
-        <v>1.056315396130802</v>
+        <v>1.050964901851536</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.050772315414106</v>
+        <v>1.032779103456042</v>
       </c>
       <c r="D4">
-        <v>1.058684881767409</v>
+        <v>1.050790828666798</v>
       </c>
       <c r="E4">
-        <v>1.054362614179068</v>
+        <v>1.040017916166102</v>
       </c>
       <c r="F4">
-        <v>1.067587448745815</v>
+        <v>1.056010522412187</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.051112974876442</v>
+        <v>1.063963691211044</v>
       </c>
       <c r="J4">
-        <v>1.055233530099396</v>
+        <v>1.051379924040448</v>
       </c>
       <c r="K4">
-        <v>1.061112800653137</v>
+        <v>1.060312590894373</v>
       </c>
       <c r="L4">
-        <v>1.056801011761477</v>
+        <v>1.049656208433144</v>
       </c>
       <c r="M4">
-        <v>1.069994071778729</v>
+        <v>1.065476869527658</v>
       </c>
       <c r="N4">
-        <v>1.056732082749115</v>
+        <v>1.052873004127548</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.051043084364872</v>
+        <v>1.034032047311761</v>
       </c>
       <c r="D5">
-        <v>1.058906468186454</v>
+        <v>1.051794786962757</v>
       </c>
       <c r="E5">
-        <v>1.054619858150673</v>
+        <v>1.041147990636097</v>
       </c>
       <c r="F5">
-        <v>1.067844914039787</v>
+        <v>1.057148832365927</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.0512013931289</v>
+        <v>1.064452857070919</v>
       </c>
       <c r="J5">
-        <v>1.055408390773451</v>
+        <v>1.052170806531459</v>
       </c>
       <c r="K5">
-        <v>1.061283309536466</v>
+        <v>1.061095883932407</v>
       </c>
       <c r="L5">
-        <v>1.057006860368716</v>
+        <v>1.050561117050262</v>
       </c>
       <c r="M5">
-        <v>1.070200849338638</v>
+        <v>1.066394632116735</v>
       </c>
       <c r="N5">
-        <v>1.056907191745384</v>
+        <v>1.053665009762412</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.051088552499424</v>
+        <v>1.03424157223379</v>
       </c>
       <c r="D6">
-        <v>1.058943677333391</v>
+        <v>1.051962705147965</v>
       </c>
       <c r="E6">
-        <v>1.054663059922136</v>
+        <v>1.041337035964316</v>
       </c>
       <c r="F6">
-        <v>1.067888151966453</v>
+        <v>1.057339248676516</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.051216223555175</v>
+        <v>1.064534517275242</v>
       </c>
       <c r="J6">
-        <v>1.055437746762595</v>
+        <v>1.052303013715325</v>
       </c>
       <c r="K6">
-        <v>1.061311933390813</v>
+        <v>1.061226811733307</v>
       </c>
       <c r="L6">
-        <v>1.057041423858555</v>
+        <v>1.050712427076015</v>
       </c>
       <c r="M6">
-        <v>1.070235567763899</v>
+        <v>1.066548084602321</v>
       </c>
       <c r="N6">
-        <v>1.0569365894234</v>
+        <v>1.053797404695644</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.050775933117619</v>
+        <v>1.032795902636165</v>
       </c>
       <c r="D7">
-        <v>1.05868784235985</v>
+        <v>1.050804287451829</v>
       </c>
       <c r="E7">
-        <v>1.054366050856654</v>
+        <v>1.04003306339314</v>
       </c>
       <c r="F7">
-        <v>1.067590888448062</v>
+        <v>1.056025780471505</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.051114157356219</v>
+        <v>1.06397025929294</v>
       </c>
       <c r="J7">
-        <v>1.055235866856303</v>
+        <v>1.051390531282968</v>
       </c>
       <c r="K7">
-        <v>1.061115079358322</v>
+        <v>1.060323097062938</v>
       </c>
       <c r="L7">
-        <v>1.056803762279706</v>
+        <v>1.049668342178878</v>
       </c>
       <c r="M7">
-        <v>1.069996834779296</v>
+        <v>1.065489176087018</v>
       </c>
       <c r="N7">
-        <v>1.056734422824485</v>
+        <v>1.052883626433569</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.049469938949012</v>
+        <v>1.026626451295934</v>
       </c>
       <c r="D8">
-        <v>1.0576190525621</v>
+        <v>1.045865446248497</v>
       </c>
       <c r="E8">
-        <v>1.053125964943895</v>
+        <v>1.034478453021664</v>
       </c>
       <c r="F8">
-        <v>1.066349593942094</v>
+        <v>1.050429781666696</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.050685313306966</v>
+        <v>1.061541769650986</v>
       </c>
       <c r="J8">
-        <v>1.054391483794214</v>
+        <v>1.047489494539543</v>
       </c>
       <c r="K8">
-        <v>1.060291494182326</v>
+        <v>1.056458014498611</v>
       </c>
       <c r="L8">
-        <v>1.055810468256769</v>
+        <v>1.045210798618353</v>
       </c>
       <c r="M8">
-        <v>1.068998912462439</v>
+        <v>1.060967377559132</v>
       </c>
       <c r="N8">
-        <v>1.055888840641595</v>
+        <v>1.048977049770514</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.047171300013344</v>
+        <v>1.015237946788406</v>
       </c>
       <c r="D9">
-        <v>1.055737879813348</v>
+        <v>1.036770149382238</v>
       </c>
       <c r="E9">
-        <v>1.050945976066537</v>
+        <v>1.024266363091663</v>
       </c>
       <c r="F9">
-        <v>1.0641669338909</v>
+        <v>1.040138454203825</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.04992127987494</v>
+        <v>1.056982696681739</v>
       </c>
       <c r="J9">
-        <v>1.052901513198555</v>
+        <v>1.040263855455541</v>
       </c>
       <c r="K9">
-        <v>1.058837386472172</v>
+        <v>1.049293552473289</v>
       </c>
       <c r="L9">
-        <v>1.054060556778149</v>
+        <v>1.036977632565215</v>
       </c>
       <c r="M9">
-        <v>1.067240284671155</v>
+        <v>1.052612229807023</v>
       </c>
       <c r="N9">
-        <v>1.054396754116788</v>
+        <v>1.04174114945022</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.045640713572921</v>
+        <v>1.007257794462116</v>
       </c>
       <c r="D10">
-        <v>1.054485282662931</v>
+        <v>1.030414864232663</v>
       </c>
       <c r="E10">
-        <v>1.0494962007988</v>
+        <v>1.017141193003829</v>
       </c>
       <c r="F10">
-        <v>1.062715018492525</v>
+        <v>1.032956332894303</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.049406331099489</v>
+        <v>1.053738899557804</v>
       </c>
       <c r="J10">
-        <v>1.051906852876932</v>
+        <v>1.035186385502851</v>
       </c>
       <c r="K10">
-        <v>1.057866110054144</v>
+        <v>1.044255857117774</v>
       </c>
       <c r="L10">
-        <v>1.052894262066795</v>
+        <v>1.031207704515727</v>
       </c>
       <c r="M10">
-        <v>1.066067806419356</v>
+        <v>1.046754997702776</v>
       </c>
       <c r="N10">
-        <v>1.05340068126342</v>
+        <v>1.036656468907803</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.044978394978952</v>
+        <v>1.003700545503339</v>
       </c>
       <c r="D11">
-        <v>1.05394326617578</v>
+        <v>1.027586985132817</v>
       </c>
       <c r="E11">
-        <v>1.048869285158477</v>
+        <v>1.013972950908102</v>
       </c>
       <c r="F11">
-        <v>1.062087091924426</v>
+        <v>1.029762483638124</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.049182030877898</v>
+        <v>1.052281846676916</v>
       </c>
       <c r="J11">
-        <v>1.051475842258801</v>
+        <v>1.03292018367969</v>
       </c>
       <c r="K11">
-        <v>1.057445101238188</v>
+        <v>1.042006751884541</v>
       </c>
       <c r="L11">
-        <v>1.05238932673279</v>
+        <v>1.028636082536412</v>
       </c>
       <c r="M11">
-        <v>1.065560106066435</v>
+        <v>1.044144133438468</v>
       </c>
       <c r="N11">
-        <v>1.052969058560773</v>
+        <v>1.034387048818116</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.04473244617875</v>
+        <v>1.00236302818714</v>
       </c>
       <c r="D12">
-        <v>1.053741993065954</v>
+        <v>1.026524542662567</v>
       </c>
       <c r="E12">
-        <v>1.04863654879489</v>
+        <v>1.012782940420221</v>
       </c>
       <c r="F12">
-        <v>1.061853967483408</v>
+        <v>1.02856282255447</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.04909851721868</v>
+        <v>1.051732383093608</v>
       </c>
       <c r="J12">
-        <v>1.051315698792578</v>
+        <v>1.032067716022</v>
       </c>
       <c r="K12">
-        <v>1.057288654382344</v>
+        <v>1.041160626404628</v>
       </c>
       <c r="L12">
-        <v>1.0522017836462</v>
+        <v>1.027669269867235</v>
       </c>
       <c r="M12">
-        <v>1.065371522855955</v>
+        <v>1.043162526711074</v>
       </c>
       <c r="N12">
-        <v>1.05280868767246</v>
+        <v>1.033533370558573</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.044785200046588</v>
+        <v>1.002650678382032</v>
       </c>
       <c r="D13">
-        <v>1.053785164284957</v>
+        <v>1.026752995635785</v>
       </c>
       <c r="E13">
-        <v>1.048686465728555</v>
+        <v>1.013038810378953</v>
       </c>
       <c r="F13">
-        <v>1.061903968228682</v>
+        <v>1.028820768827535</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.049116440162188</v>
+        <v>1.051850624376062</v>
       </c>
       <c r="J13">
-        <v>1.051350052224391</v>
+        <v>1.032251066498906</v>
       </c>
       <c r="K13">
-        <v>1.057322215715039</v>
+        <v>1.041342616653989</v>
       </c>
       <c r="L13">
-        <v>1.05224201170405</v>
+        <v>1.027877189397546</v>
       </c>
       <c r="M13">
-        <v>1.065411974614296</v>
+        <v>1.043373629492452</v>
       </c>
       <c r="N13">
-        <v>1.052843089890087</v>
+        <v>1.033716981414187</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.044958063429478</v>
+        <v>1.003590321777407</v>
       </c>
       <c r="D14">
-        <v>1.053926627731183</v>
+        <v>1.027499412734061</v>
       </c>
       <c r="E14">
-        <v>1.048850044481745</v>
+        <v>1.013874857543653</v>
       </c>
       <c r="F14">
-        <v>1.062067819425122</v>
+        <v>1.029663595365932</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.049175131661525</v>
+        <v>1.052236598342994</v>
       </c>
       <c r="J14">
-        <v>1.051462605704051</v>
+        <v>1.032849939961907</v>
       </c>
       <c r="K14">
-        <v>1.057432170623526</v>
+        <v>1.041937032516254</v>
       </c>
       <c r="L14">
-        <v>1.052373824106374</v>
+        <v>1.028556405711648</v>
       </c>
       <c r="M14">
-        <v>1.065544517729308</v>
+        <v>1.044063238182021</v>
       </c>
       <c r="N14">
-        <v>1.052955803208597</v>
+        <v>1.034316705346197</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.045064578998011</v>
+        <v>1.004167092693632</v>
       </c>
       <c r="D15">
-        <v>1.054013795469949</v>
+        <v>1.027957689794936</v>
       </c>
       <c r="E15">
-        <v>1.048950847738769</v>
+        <v>1.01438820448419</v>
       </c>
       <c r="F15">
-        <v>1.062168788879712</v>
+        <v>1.030181100997849</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.049211267129309</v>
+        <v>1.05247330511623</v>
       </c>
       <c r="J15">
-        <v>1.051531947415585</v>
+        <v>1.033217491084915</v>
       </c>
       <c r="K15">
-        <v>1.057499908819467</v>
+        <v>1.042301836406714</v>
       </c>
       <c r="L15">
-        <v>1.05245503973802</v>
+        <v>1.02897333781348</v>
       </c>
       <c r="M15">
-        <v>1.065626181847098</v>
+        <v>1.044486544475651</v>
       </c>
       <c r="N15">
-        <v>1.053025243393316</v>
+        <v>1.034684778433958</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.04568467868451</v>
+        <v>1.007491657126708</v>
       </c>
       <c r="D16">
-        <v>1.054521262308007</v>
+        <v>1.030600887769294</v>
       </c>
       <c r="E16">
-        <v>1.049537825032683</v>
+        <v>1.017349650289313</v>
       </c>
       <c r="F16">
-        <v>1.062756708050569</v>
+        <v>1.033166469961961</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.049421189300763</v>
+        <v>1.053834463238374</v>
       </c>
       <c r="J16">
-        <v>1.051935451019621</v>
+        <v>1.035335315919387</v>
       </c>
       <c r="K16">
-        <v>1.057894041811773</v>
+        <v>1.044403651123284</v>
       </c>
       <c r="L16">
-        <v>1.052927774661375</v>
+        <v>1.031376782057854</v>
       </c>
       <c r="M16">
-        <v>1.066101500681817</v>
+        <v>1.046926649173282</v>
       </c>
       <c r="N16">
-        <v>1.053429320018752</v>
+        <v>1.036805610822613</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.046073767691398</v>
+        <v>1.009549199092955</v>
       </c>
       <c r="D17">
-        <v>1.0548396815698</v>
+        <v>1.032238122064489</v>
       </c>
       <c r="E17">
-        <v>1.049906247625958</v>
+        <v>1.019184577626124</v>
       </c>
       <c r="F17">
-        <v>1.063125698963575</v>
+        <v>1.035016152312361</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.04955251370327</v>
+        <v>1.054673984158353</v>
       </c>
       <c r="J17">
-        <v>1.052188473928955</v>
+        <v>1.036645297793701</v>
       </c>
       <c r="K17">
-        <v>1.0581411537417</v>
+        <v>1.045703563757414</v>
       </c>
       <c r="L17">
-        <v>1.05322433013291</v>
+        <v>1.032864390226619</v>
       </c>
       <c r="M17">
-        <v>1.06639965359733</v>
+        <v>1.048436867077223</v>
       </c>
       <c r="N17">
-        <v>1.053682702249639</v>
+        <v>1.038117453021446</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.046300758712568</v>
+        <v>1.010739571715082</v>
       </c>
       <c r="D18">
-        <v>1.055025445424029</v>
+        <v>1.033185804816894</v>
       </c>
       <c r="E18">
-        <v>1.050121223922351</v>
+        <v>1.020246902683353</v>
       </c>
       <c r="F18">
-        <v>1.063340998618127</v>
+        <v>1.036086992104928</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.049628985234852</v>
+        <v>1.055158626304963</v>
       </c>
       <c r="J18">
-        <v>1.052336027370757</v>
+        <v>1.037402901806408</v>
       </c>
       <c r="K18">
-        <v>1.058285247481134</v>
+        <v>1.046455281616223</v>
       </c>
       <c r="L18">
-        <v>1.05339731340066</v>
+        <v>1.033725066399968</v>
       </c>
       <c r="M18">
-        <v>1.066573560179211</v>
+        <v>1.049310592374118</v>
       </c>
       <c r="N18">
-        <v>1.053830465234253</v>
+        <v>1.038876132918749</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.046378163894446</v>
+        <v>1.01114382945474</v>
       </c>
       <c r="D19">
-        <v>1.055088792055279</v>
+        <v>1.033507722156976</v>
       </c>
       <c r="E19">
-        <v>1.050194539104928</v>
+        <v>1.020607799307224</v>
       </c>
       <c r="F19">
-        <v>1.063414422675464</v>
+        <v>1.036450776402652</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.049655038368315</v>
+        <v>1.055323033228456</v>
       </c>
       <c r="J19">
-        <v>1.05238633408399</v>
+        <v>1.037660140769173</v>
       </c>
       <c r="K19">
-        <v>1.058334372500147</v>
+        <v>1.046710511049852</v>
       </c>
       <c r="L19">
-        <v>1.053456297472989</v>
+        <v>1.0340173614374</v>
       </c>
       <c r="M19">
-        <v>1.066632857642633</v>
+        <v>1.04960731333931</v>
       </c>
       <c r="N19">
-        <v>1.053880843388789</v>
+        <v>1.039133737190348</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.046032017777487</v>
+        <v>1.009329459821779</v>
       </c>
       <c r="D20">
-        <v>1.0548055145401</v>
+        <v>1.03206322055384</v>
       </c>
       <c r="E20">
-        <v>1.049866710918942</v>
+        <v>1.018988535323711</v>
       </c>
       <c r="F20">
-        <v>1.063086102121889</v>
+        <v>1.034818536390671</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.049538437051101</v>
+        <v>1.054584434992209</v>
       </c>
       <c r="J20">
-        <v>1.05216133012019</v>
+        <v>1.036505423815269</v>
       </c>
       <c r="K20">
-        <v>1.058114645358412</v>
+        <v>1.045564771377206</v>
       </c>
       <c r="L20">
-        <v>1.053192511759004</v>
+        <v>1.032705514307251</v>
       </c>
       <c r="M20">
-        <v>1.066367664706078</v>
+        <v>1.048275579710606</v>
       </c>
       <c r="N20">
-        <v>1.053655519893551</v>
+        <v>1.03797738040592</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.044907157651689</v>
+        <v>1.003314074923621</v>
       </c>
       <c r="D21">
-        <v>1.053884968720454</v>
+        <v>1.027279949167778</v>
       </c>
       <c r="E21">
-        <v>1.048801871075453</v>
+        <v>1.013629032446172</v>
       </c>
       <c r="F21">
-        <v>1.062019566137529</v>
+        <v>1.029415777718339</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.049157853956521</v>
+        <v>1.052123169429257</v>
       </c>
       <c r="J21">
-        <v>1.051429462800623</v>
+        <v>1.03267388654216</v>
       </c>
       <c r="K21">
-        <v>1.057399793444848</v>
+        <v>1.041762291885921</v>
       </c>
       <c r="L21">
-        <v>1.052335008292168</v>
+        <v>1.028356718625867</v>
       </c>
       <c r="M21">
-        <v>1.065505487098708</v>
+        <v>1.043860496822455</v>
       </c>
       <c r="N21">
-        <v>1.052922613238445</v>
+        <v>1.0341404019104</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.044200294432551</v>
+        <v>0.9994377566209033</v>
       </c>
       <c r="D22">
-        <v>1.053306509168306</v>
+        <v>1.024202501101165</v>
       </c>
       <c r="E22">
-        <v>1.048133105088649</v>
+        <v>1.010182627140581</v>
       </c>
       <c r="F22">
-        <v>1.061349661011519</v>
+        <v>1.025941373891746</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.048917417569021</v>
+        <v>1.05052774482033</v>
       </c>
       <c r="J22">
-        <v>1.050969037516672</v>
+        <v>1.030202646831462</v>
       </c>
       <c r="K22">
-        <v>1.056949959392661</v>
+        <v>1.039309280229073</v>
       </c>
       <c r="L22">
-        <v>1.051795933778517</v>
+        <v>1.025555027574873</v>
       </c>
       <c r="M22">
-        <v>1.064963398168868</v>
+        <v>1.041015868048042</v>
       </c>
       <c r="N22">
-        <v>1.052461534097779</v>
+        <v>1.031665652755858</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.044574979752355</v>
+        <v>1.001501915880497</v>
       </c>
       <c r="D23">
-        <v>1.053613130493539</v>
+        <v>1.025840771642752</v>
       </c>
       <c r="E23">
-        <v>1.04848756006955</v>
+        <v>1.012017152100273</v>
       </c>
       <c r="F23">
-        <v>1.061704726736322</v>
+        <v>1.027790816148571</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.0490449862133</v>
+        <v>1.051378182291203</v>
       </c>
       <c r="J23">
-        <v>1.05121314319387</v>
+        <v>1.031518784345767</v>
       </c>
       <c r="K23">
-        <v>1.057188460581846</v>
+        <v>1.040615754826147</v>
       </c>
       <c r="L23">
-        <v>1.052081700335308</v>
+        <v>1.027046860488035</v>
       </c>
       <c r="M23">
-        <v>1.065250769865971</v>
+        <v>1.042530582989725</v>
       </c>
       <c r="N23">
-        <v>1.052705986433038</v>
+        <v>1.032983659336396</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.046050882636699</v>
+        <v>1.00942878062512</v>
       </c>
       <c r="D24">
-        <v>1.054820953041144</v>
+        <v>1.032142273495597</v>
       </c>
       <c r="E24">
-        <v>1.049884575602811</v>
+        <v>1.019077142939116</v>
       </c>
       <c r="F24">
-        <v>1.063103994003169</v>
+        <v>1.034907855340274</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.04954479807908</v>
+        <v>1.054624913942298</v>
       </c>
       <c r="J24">
-        <v>1.05217359533335</v>
+        <v>1.036568646850362</v>
       </c>
       <c r="K24">
-        <v>1.058126623487017</v>
+        <v>1.045627505725392</v>
       </c>
       <c r="L24">
-        <v>1.053206889089474</v>
+        <v>1.0327773251482</v>
       </c>
       <c r="M24">
-        <v>1.06638211911211</v>
+        <v>1.048348480609463</v>
       </c>
       <c r="N24">
-        <v>1.053667802524721</v>
+        <v>1.038040693224975</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.047765231347293</v>
+        <v>1.01824739482802</v>
       </c>
       <c r="D25">
-        <v>1.056223944754047</v>
+        <v>1.03917076700201</v>
       </c>
       <c r="E25">
-        <v>1.0515089335679</v>
+        <v>1.026959855895173</v>
       </c>
       <c r="F25">
-        <v>1.064730645635977</v>
+        <v>1.04285316856579</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.050119788470614</v>
+        <v>1.058196092382231</v>
       </c>
       <c r="J25">
-        <v>1.053286946467964</v>
+        <v>1.042175888701982</v>
       </c>
       <c r="K25">
-        <v>1.059213641063502</v>
+        <v>1.0511899836729</v>
       </c>
       <c r="L25">
-        <v>1.054512898936861</v>
+        <v>1.039153589239837</v>
       </c>
       <c r="M25">
-        <v>1.067694946204032</v>
+        <v>1.054820769377899</v>
       </c>
       <c r="N25">
-        <v>1.05478273474565</v>
+        <v>1.043655898003184</v>
       </c>
     </row>
   </sheetData>
